--- a/db/perfectbar.xlsx
+++ b/db/perfectbar.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,78 +27,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Destination</t>
   </si>
   <si>
-    <t>Zip</t>
-  </si>
-  <si>
     <t>C&amp;S Wholesale Grocers</t>
   </si>
   <si>
-    <t>Stockton</t>
-  </si>
-  <si>
-    <t>N CA</t>
-  </si>
-  <si>
-    <t>TOLLESON</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
     <t>Costco</t>
   </si>
   <si>
-    <t>TRACY</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>SUMNER</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
     <t>Grocery Outlet Inc</t>
   </si>
   <si>
-    <t>TACOMA</t>
-  </si>
-  <si>
-    <t>MODESTO</t>
-  </si>
-  <si>
     <t>LA Distributing</t>
   </si>
   <si>
-    <t>Commerce</t>
-  </si>
-  <si>
-    <t>S CA</t>
-  </si>
-  <si>
     <t>Trader Joe's</t>
   </si>
   <si>
-    <t>Lacey</t>
-  </si>
-  <si>
     <t>Winco Foods, Inc.</t>
   </si>
   <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Fontana</t>
-  </si>
-  <si>
-    <t>State</t>
+    <t>Commerce, CA</t>
+  </si>
+  <si>
+    <t>Fontana, CA</t>
+  </si>
+  <si>
+    <t>Stockton, CA</t>
+  </si>
+  <si>
+    <t>Olympia, WA</t>
+  </si>
+  <si>
+    <t>Modesto, CA</t>
+  </si>
+  <si>
+    <t>Phoeniz, AZ</t>
+  </si>
+  <si>
+    <t>Sumner, WA</t>
+  </si>
+  <si>
+    <t>Tacoma, WA</t>
+  </si>
+  <si>
+    <t>Tolleson, AZ</t>
+  </si>
+  <si>
+    <t>Tracy, CA</t>
   </si>
 </sst>
 </file>
@@ -122,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,12 +109,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -425,296 +421,270 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>225</v>
+      </c>
+      <c r="D2" s="2">
+        <v>245</v>
+      </c>
+      <c r="E2" s="2">
+        <v>255</v>
+      </c>
+      <c r="F2" s="2">
+        <v>275</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>285</v>
+      </c>
+      <c r="D3" s="2">
+        <v>335</v>
+      </c>
+      <c r="E3" s="2">
+        <v>340</v>
+      </c>
+      <c r="F3" s="2">
+        <v>345</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>330</v>
+      </c>
+      <c r="D4" s="2">
+        <v>600</v>
+      </c>
+      <c r="E4" s="2">
+        <v>875</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1080</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>275</v>
+      </c>
+      <c r="D5" s="2">
+        <v>440</v>
+      </c>
+      <c r="E5" s="2">
+        <v>535</v>
+      </c>
+      <c r="F5" s="2">
+        <v>630</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>255</v>
+      </c>
+      <c r="D6" s="2">
+        <v>375</v>
+      </c>
+      <c r="E6" s="2">
+        <v>495</v>
+      </c>
+      <c r="F6" s="2">
+        <v>600</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>350</v>
+      </c>
+      <c r="D7" s="2">
+        <v>450</v>
+      </c>
+      <c r="E7" s="2">
+        <v>545</v>
+      </c>
+      <c r="F7" s="2">
+        <v>640</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>240</v>
+      </c>
+      <c r="D8" s="2">
+        <v>380</v>
+      </c>
+      <c r="E8" s="2">
+        <v>500</v>
+      </c>
+      <c r="F8" s="2">
+        <v>550</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>285</v>
+      </c>
+      <c r="D9" s="2">
+        <v>500</v>
+      </c>
+      <c r="E9" s="2">
+        <v>720</v>
+      </c>
+      <c r="F9" s="2">
+        <v>900</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>330</v>
+      </c>
+      <c r="D10" s="2">
+        <v>600</v>
+      </c>
+      <c r="E10" s="2">
+        <v>875</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1080</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C11" s="2">
+        <v>255</v>
+      </c>
+      <c r="D11" s="2">
+        <v>375</v>
+      </c>
+      <c r="E11" s="2">
+        <v>495</v>
+      </c>
+      <c r="F11" s="2">
+        <v>600</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>225</v>
-      </c>
-      <c r="D2">
-        <v>245</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>275</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>285</v>
-      </c>
-      <c r="D3">
-        <v>335</v>
-      </c>
-      <c r="E3">
-        <v>340</v>
-      </c>
-      <c r="F3">
-        <v>345</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>330</v>
-      </c>
-      <c r="D4">
-        <v>600</v>
-      </c>
-      <c r="E4">
-        <v>875</v>
-      </c>
-      <c r="F4">
-        <v>1080</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>275</v>
-      </c>
-      <c r="D5">
-        <v>440</v>
-      </c>
-      <c r="E5">
-        <v>535</v>
-      </c>
-      <c r="F5">
-        <v>630</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>255</v>
-      </c>
-      <c r="D6">
-        <v>375</v>
-      </c>
-      <c r="E6">
-        <v>495</v>
-      </c>
-      <c r="F6">
-        <v>600</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>350</v>
-      </c>
-      <c r="D7">
-        <v>450</v>
-      </c>
-      <c r="E7">
-        <v>545</v>
-      </c>
-      <c r="F7">
-        <v>640</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
+      <c r="C12" s="2">
         <v>240</v>
       </c>
-      <c r="D8">
+      <c r="D12" s="2">
         <v>380</v>
       </c>
-      <c r="E8">
+      <c r="E12" s="2">
         <v>500</v>
       </c>
-      <c r="F8">
+      <c r="F12" s="2">
         <v>550</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>285</v>
-      </c>
-      <c r="D9">
-        <v>500</v>
-      </c>
-      <c r="E9">
-        <v>720</v>
-      </c>
-      <c r="F9">
-        <v>900</v>
-      </c>
-      <c r="G9">
-        <v>1235</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>330</v>
-      </c>
-      <c r="D10">
-        <v>600</v>
-      </c>
-      <c r="E10">
-        <v>875</v>
-      </c>
-      <c r="F10">
-        <v>1080</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>255</v>
-      </c>
-      <c r="D11">
-        <v>375</v>
-      </c>
-      <c r="E11">
-        <v>495</v>
-      </c>
-      <c r="F11">
-        <v>600</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>240</v>
-      </c>
-      <c r="D12">
-        <v>380</v>
-      </c>
-      <c r="E12">
-        <v>500</v>
-      </c>
-      <c r="F12">
-        <v>550</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:G1">
     <sortState ref="A2:H14">
       <sortCondition ref="B1"/>
     </sortState>

--- a/db/perfectbar.xlsx
+++ b/db/perfectbar.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,57 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Destination</t>
   </si>
   <si>
-    <t>C&amp;S Wholesale Grocers</t>
-  </si>
-  <si>
-    <t>Costco</t>
-  </si>
-  <si>
-    <t>Grocery Outlet Inc</t>
-  </si>
-  <si>
-    <t>LA Distributing</t>
-  </si>
-  <si>
-    <t>Trader Joe's</t>
-  </si>
-  <si>
-    <t>Winco Foods, Inc.</t>
-  </si>
-  <si>
-    <t>Commerce, CA</t>
-  </si>
-  <si>
-    <t>Fontana, CA</t>
-  </si>
-  <si>
-    <t>Stockton, CA</t>
-  </si>
-  <si>
-    <t>Olympia, WA</t>
-  </si>
-  <si>
-    <t>Modesto, CA</t>
-  </si>
-  <si>
-    <t>Phoeniz, AZ</t>
-  </si>
-  <si>
-    <t>Sumner, WA</t>
-  </si>
-  <si>
-    <t>Tacoma, WA</t>
-  </si>
-  <si>
-    <t>Tolleson, AZ</t>
-  </si>
-  <si>
-    <t>Tracy, CA</t>
+    <t>Los Angeles, CA 90040</t>
+  </si>
+  <si>
+    <t>Fontana, CA 92335</t>
+  </si>
+  <si>
+    <t>Olympia, WA 98516</t>
+  </si>
+  <si>
+    <t>Modesto, CA 95358</t>
+  </si>
+  <si>
+    <t>Stockton, CA 95206</t>
+  </si>
+  <si>
+    <t>Stockton, CA 95205</t>
+  </si>
+  <si>
+    <t>Sumner, WA 98390</t>
+  </si>
+  <si>
+    <t>Tacoma, WA 98424</t>
+  </si>
+  <si>
+    <t>Tolleson, AZ 85353</t>
+  </si>
+  <si>
+    <t>Tracy, CA 95377</t>
+  </si>
+  <si>
+    <t>Phoenix, AZ 85043</t>
   </si>
 </sst>
 </file>
@@ -412,283 +397,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" s="1">
+        <v>1</v>
       </c>
       <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="B2" s="2">
+        <v>225</v>
+      </c>
+      <c r="C2" s="2">
+        <v>245</v>
+      </c>
+      <c r="D2" s="2">
+        <v>255</v>
+      </c>
+      <c r="E2" s="2">
+        <v>275</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="B3" s="2">
+        <v>285</v>
+      </c>
+      <c r="C3" s="2">
+        <v>335</v>
+      </c>
+      <c r="D3" s="2">
+        <v>340</v>
+      </c>
+      <c r="E3" s="2">
+        <v>345</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="B4" s="2">
+        <v>330</v>
+      </c>
+      <c r="C4" s="2">
+        <v>600</v>
+      </c>
+      <c r="D4" s="2">
+        <v>875</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1080</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="B5" s="2">
+        <v>275</v>
+      </c>
+      <c r="C5" s="2">
+        <v>440</v>
+      </c>
+      <c r="D5" s="2">
+        <v>535</v>
+      </c>
+      <c r="E5" s="2">
+        <v>630</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>255</v>
+      </c>
+      <c r="C6" s="2">
+        <v>375</v>
+      </c>
+      <c r="D6" s="2">
+        <v>495</v>
+      </c>
+      <c r="E6" s="2">
+        <v>600</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="2">
+        <v>350</v>
+      </c>
+      <c r="C7" s="2">
+        <v>450</v>
+      </c>
+      <c r="D7" s="2">
+        <v>545</v>
+      </c>
+      <c r="E7" s="2">
+        <v>640</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>240</v>
+      </c>
+      <c r="C8" s="2">
+        <v>380</v>
+      </c>
+      <c r="D8" s="2">
+        <v>500</v>
+      </c>
+      <c r="E8" s="2">
+        <v>550</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>225</v>
-      </c>
-      <c r="D2" s="2">
-        <v>245</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B9" s="2">
+        <v>285</v>
+      </c>
+      <c r="C9" s="2">
+        <v>500</v>
+      </c>
+      <c r="D9" s="2">
+        <v>720</v>
+      </c>
+      <c r="E9" s="2">
+        <v>900</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>330</v>
+      </c>
+      <c r="C10" s="2">
+        <v>600</v>
+      </c>
+      <c r="D10" s="2">
+        <v>875</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1080</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
         <v>255</v>
       </c>
-      <c r="F2" s="2">
-        <v>275</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>285</v>
-      </c>
-      <c r="D3" s="2">
-        <v>335</v>
-      </c>
-      <c r="E3" s="2">
-        <v>340</v>
-      </c>
-      <c r="F3" s="2">
-        <v>345</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C11" s="2">
+        <v>375</v>
+      </c>
+      <c r="D11" s="2">
+        <v>495</v>
+      </c>
+      <c r="E11" s="2">
+        <v>600</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>330</v>
-      </c>
-      <c r="D4" s="2">
-        <v>600</v>
-      </c>
-      <c r="E4" s="2">
-        <v>875</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1080</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>275</v>
-      </c>
-      <c r="D5" s="2">
-        <v>440</v>
-      </c>
-      <c r="E5" s="2">
-        <v>535</v>
-      </c>
-      <c r="F5" s="2">
-        <v>630</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>255</v>
-      </c>
-      <c r="D6" s="2">
-        <v>375</v>
-      </c>
-      <c r="E6" s="2">
-        <v>495</v>
-      </c>
-      <c r="F6" s="2">
-        <v>600</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>350</v>
-      </c>
-      <c r="D7" s="2">
-        <v>450</v>
-      </c>
-      <c r="E7" s="2">
-        <v>545</v>
-      </c>
-      <c r="F7" s="2">
-        <v>640</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B12" s="2">
         <v>240</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C12" s="2">
         <v>380</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D12" s="2">
         <v>500</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E12" s="2">
         <v>550</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2">
-        <v>285</v>
-      </c>
-      <c r="D9" s="2">
-        <v>500</v>
-      </c>
-      <c r="E9" s="2">
-        <v>720</v>
-      </c>
-      <c r="F9" s="2">
-        <v>900</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2">
-        <v>330</v>
-      </c>
-      <c r="D10" s="2">
-        <v>600</v>
-      </c>
-      <c r="E10" s="2">
-        <v>875</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1080</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2">
-        <v>255</v>
-      </c>
-      <c r="D11" s="2">
-        <v>375</v>
-      </c>
-      <c r="E11" s="2">
-        <v>495</v>
-      </c>
-      <c r="F11" s="2">
-        <v>600</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
-        <v>240</v>
-      </c>
-      <c r="D12" s="2">
-        <v>380</v>
-      </c>
-      <c r="E12" s="2">
-        <v>500</v>
-      </c>
-      <c r="F12" s="2">
-        <v>550</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:H14">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/perfectbar.xlsx
+++ b/db/perfectbar.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Destination</t>
   </si>
@@ -47,15 +47,6 @@
     <t>Stockton, CA 95206</t>
   </si>
   <si>
-    <t>Stockton, CA 95205</t>
-  </si>
-  <si>
-    <t>Sumner, WA 98390</t>
-  </si>
-  <si>
-    <t>Tacoma, WA 98424</t>
-  </si>
-  <si>
     <t>Tolleson, AZ 85353</t>
   </si>
   <si>
@@ -63,6 +54,99 @@
   </si>
   <si>
     <t>Phoenix, AZ 85043</t>
+  </si>
+  <si>
+    <t>Brea, CA 92821</t>
+  </si>
+  <si>
+    <t>Fullerton, CA 92831</t>
+  </si>
+  <si>
+    <t>Sylmar, CA 91342</t>
+  </si>
+  <si>
+    <t>Mira Loma, CA 91752</t>
+  </si>
+  <si>
+    <t>Ontario, CA 91761</t>
+  </si>
+  <si>
+    <t>Turlock, CA 95382</t>
+  </si>
+  <si>
+    <t>Santa Fe Springs, CA 90670</t>
+  </si>
+  <si>
+    <t>Chino, CA 91708</t>
+  </si>
+  <si>
+    <t>Stockton, CA 95215</t>
+  </si>
+  <si>
+    <t>Lakeland, CA 92407</t>
+  </si>
+  <si>
+    <t>Rancho California, CA 92591</t>
+  </si>
+  <si>
+    <t>San Diego, CA 92121</t>
+  </si>
+  <si>
+    <t>San Bernardino, CA 92408</t>
+  </si>
+  <si>
+    <t>Gilroy, CA 95020</t>
+  </si>
+  <si>
+    <t>Riverside, CA 92518</t>
+  </si>
+  <si>
+    <t>Rocklin, CA 95765</t>
+  </si>
+  <si>
+    <t>Aurora, CO 80011</t>
+  </si>
+  <si>
+    <t>Denver, CO 80239</t>
+  </si>
+  <si>
+    <t>Jacksonville, FL 32254</t>
+  </si>
+  <si>
+    <t>Boise, ID 83716</t>
+  </si>
+  <si>
+    <t>Portland, OR 97230</t>
+  </si>
+  <si>
+    <t>Tualatin, OR 97062</t>
+  </si>
+  <si>
+    <t>Maywood Park, OR 97220</t>
+  </si>
+  <si>
+    <t>Monitor, OR 97071</t>
+  </si>
+  <si>
+    <t>Dallas, TX 75227</t>
+  </si>
+  <si>
+    <t>North Salt Lake, UT 84054</t>
+  </si>
+  <si>
+    <t>Salt Lake City, UT 84104</t>
+  </si>
+  <si>
+    <t>Auburn, WA 98047</t>
+  </si>
+  <si>
+    <t>Spokane, WA 99217</t>
+  </si>
+  <si>
+    <t>Bonney Lake, WA 98390</t>
+  </si>
+  <si>
+    <t>Lakewood, WA 98499</t>
   </si>
 </sst>
 </file>
@@ -113,10 +197,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,242 +482,1423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>340</v>
+      </c>
+      <c r="C2" s="1">
+        <v>610</v>
+      </c>
+      <c r="D2" s="1">
+        <v>885</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1235</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1480</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1720</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1950</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2110</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>475</v>
+      </c>
+      <c r="C3" s="1">
+        <v>735</v>
+      </c>
+      <c r="D3" s="1">
+        <v>935</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1130</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1455</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1525</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1735</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2250</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>550</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1165</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1415</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1700</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1870</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2145</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2430</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2680</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1">
+        <v>485</v>
+      </c>
+      <c r="C5" s="1">
+        <v>770</v>
+      </c>
+      <c r="D5" s="1">
+        <v>945</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1235</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1480</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1720</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1950</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2110</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>250</v>
+      </c>
+      <c r="C6" s="1">
+        <v>255</v>
+      </c>
+      <c r="D6" s="1">
+        <v>265</v>
+      </c>
+      <c r="E6" s="1">
+        <v>285</v>
+      </c>
+      <c r="F6" s="1">
+        <v>305</v>
+      </c>
+      <c r="G6" s="1">
+        <v>325</v>
+      </c>
+      <c r="H6" s="1">
+        <v>350</v>
+      </c>
+      <c r="I6" s="1">
+        <v>375</v>
+      </c>
+      <c r="J6" s="1">
+        <v>385</v>
+      </c>
+      <c r="K6" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>250</v>
+      </c>
+      <c r="C7" s="1">
+        <v>255</v>
+      </c>
+      <c r="D7" s="1">
+        <v>265</v>
+      </c>
+      <c r="E7" s="1">
+        <v>285</v>
+      </c>
+      <c r="F7" s="1">
+        <v>305</v>
+      </c>
+      <c r="G7" s="1">
+        <v>325</v>
+      </c>
+      <c r="H7" s="1">
+        <v>350</v>
+      </c>
+      <c r="I7" s="1">
+        <v>375</v>
+      </c>
+      <c r="J7" s="1">
+        <v>385</v>
+      </c>
+      <c r="K7" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B8" s="1">
         <v>225</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C8" s="1">
         <v>245</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D8" s="1">
+        <v>265</v>
+      </c>
+      <c r="E8" s="1">
+        <v>285</v>
+      </c>
+      <c r="F8" s="1">
+        <v>305</v>
+      </c>
+      <c r="G8" s="1">
+        <v>325</v>
+      </c>
+      <c r="H8" s="1">
+        <v>350</v>
+      </c>
+      <c r="I8" s="1">
+        <v>375</v>
+      </c>
+      <c r="J8" s="1">
+        <v>385</v>
+      </c>
+      <c r="K8" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <v>285</v>
+      </c>
+      <c r="C9" s="1">
+        <v>570</v>
+      </c>
+      <c r="D9" s="1">
+        <v>825</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1040</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1225</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1440</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1645</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1840</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1980</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>475</v>
+      </c>
+      <c r="C10" s="1">
+        <v>735</v>
+      </c>
+      <c r="D10" s="1">
+        <v>935</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1130</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1455</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1525</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1735</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2250</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>250</v>
+      </c>
+      <c r="C11" s="1">
         <v>255</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D11" s="1">
         <v>275</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="E11" s="1">
+        <v>295</v>
+      </c>
+      <c r="F11" s="1">
+        <v>315</v>
+      </c>
+      <c r="G11" s="1">
+        <v>330</v>
+      </c>
+      <c r="H11" s="1">
+        <v>350</v>
+      </c>
+      <c r="I11" s="1">
+        <v>370</v>
+      </c>
+      <c r="J11" s="1">
+        <v>390</v>
+      </c>
+      <c r="K11" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>265</v>
+      </c>
+      <c r="C12" s="1">
+        <v>270</v>
+      </c>
+      <c r="D12" s="1">
+        <v>280</v>
+      </c>
+      <c r="E12" s="1">
         <v>285</v>
       </c>
-      <c r="C3" s="2">
+      <c r="F12" s="1">
+        <v>305</v>
+      </c>
+      <c r="G12" s="1">
+        <v>325</v>
+      </c>
+      <c r="H12" s="1">
+        <v>350</v>
+      </c>
+      <c r="I12" s="1">
+        <v>375</v>
+      </c>
+      <c r="J12" s="1">
+        <v>385</v>
+      </c>
+      <c r="K12" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>450</v>
+      </c>
+      <c r="C13" s="1">
+        <v>695</v>
+      </c>
+      <c r="D13" s="1">
+        <v>720</v>
+      </c>
+      <c r="E13" s="1">
+        <v>750</v>
+      </c>
+      <c r="F13" s="1">
+        <v>775</v>
+      </c>
+      <c r="G13" s="1">
+        <v>840</v>
+      </c>
+      <c r="H13" s="1">
+        <v>900</v>
+      </c>
+      <c r="I13" s="1">
+        <v>980</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1025</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>450</v>
+      </c>
+      <c r="C14" s="1">
+        <v>850</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1540</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1900</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2250</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2590</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2880</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3195</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>350</v>
+      </c>
+      <c r="C15" s="1">
+        <v>400</v>
+      </c>
+      <c r="D15" s="1">
+        <v>450</v>
+      </c>
+      <c r="E15" s="1">
+        <v>575</v>
+      </c>
+      <c r="F15" s="1">
+        <v>590</v>
+      </c>
+      <c r="G15" s="1">
+        <v>600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>600</v>
+      </c>
+      <c r="I15" s="1">
+        <v>600</v>
+      </c>
+      <c r="J15" s="1">
+        <v>600</v>
+      </c>
+      <c r="K15" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
+        <v>340</v>
+      </c>
+      <c r="C16" s="1">
+        <v>610</v>
+      </c>
+      <c r="D16" s="1">
+        <v>885</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1235</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1480</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1720</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1950</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2110</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>475</v>
+      </c>
+      <c r="C17" s="1">
+        <v>730</v>
+      </c>
+      <c r="D17" s="1">
+        <v>925</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1115</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1380</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1445</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1525</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1900</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
         <v>335</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C18" s="1">
+        <v>345</v>
+      </c>
+      <c r="D18" s="1">
+        <v>355</v>
+      </c>
+      <c r="E18" s="1">
+        <v>365</v>
+      </c>
+      <c r="F18" s="1">
+        <v>370</v>
+      </c>
+      <c r="G18" s="1">
+        <v>375</v>
+      </c>
+      <c r="H18" s="1">
+        <v>380</v>
+      </c>
+      <c r="I18" s="1">
+        <v>390</v>
+      </c>
+      <c r="J18" s="1">
+        <v>405</v>
+      </c>
+      <c r="K18" s="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>395</v>
+      </c>
+      <c r="C19" s="1">
+        <v>500</v>
+      </c>
+      <c r="D19" s="1">
+        <v>575</v>
+      </c>
+      <c r="E19" s="1">
+        <v>685</v>
+      </c>
+      <c r="F19" s="1">
+        <v>750</v>
+      </c>
+      <c r="G19" s="1">
+        <v>790</v>
+      </c>
+      <c r="H19" s="1">
+        <v>855</v>
+      </c>
+      <c r="I19" s="1">
+        <v>930</v>
+      </c>
+      <c r="J19" s="1">
+        <v>990</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1">
+        <v>475</v>
+      </c>
+      <c r="C20" s="1">
+        <v>730</v>
+      </c>
+      <c r="D20" s="1">
+        <v>925</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1115</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1380</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1445</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1525</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1900</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>275</v>
+      </c>
+      <c r="C21" s="1">
+        <v>490</v>
+      </c>
+      <c r="D21" s="1">
+        <v>700</v>
+      </c>
+      <c r="E21" s="1">
+        <v>900</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1050</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1330</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1530</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
         <v>340</v>
       </c>
-      <c r="E3" s="2">
+      <c r="C22" s="1">
+        <v>610</v>
+      </c>
+      <c r="D22" s="1">
+        <v>885</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1235</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1480</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1720</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1950</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2110</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>265</v>
+      </c>
+      <c r="C23" s="1">
+        <v>270</v>
+      </c>
+      <c r="D23" s="1">
+        <v>280</v>
+      </c>
+      <c r="E23" s="1">
+        <v>285</v>
+      </c>
+      <c r="F23" s="1">
+        <v>305</v>
+      </c>
+      <c r="G23" s="1">
+        <v>325</v>
+      </c>
+      <c r="H23" s="1">
+        <v>350</v>
+      </c>
+      <c r="I23" s="1">
+        <v>375</v>
+      </c>
+      <c r="J23" s="1">
+        <v>385</v>
+      </c>
+      <c r="K23" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>265</v>
+      </c>
+      <c r="C24" s="1">
+        <v>385</v>
+      </c>
+      <c r="D24" s="1">
+        <v>495</v>
+      </c>
+      <c r="E24" s="1">
+        <v>600</v>
+      </c>
+      <c r="F24" s="1">
+        <v>675</v>
+      </c>
+      <c r="G24" s="1">
+        <v>795</v>
+      </c>
+      <c r="H24" s="1">
+        <v>892.5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1080</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>475</v>
+      </c>
+      <c r="C25" s="1">
+        <v>730</v>
+      </c>
+      <c r="D25" s="1">
+        <v>925</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1115</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1380</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1445</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1525</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1900</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>350</v>
+      </c>
+      <c r="C26" s="1">
+        <v>400</v>
+      </c>
+      <c r="D26" s="1">
+        <v>450</v>
+      </c>
+      <c r="E26" s="1">
+        <v>575</v>
+      </c>
+      <c r="F26" s="1">
+        <v>590</v>
+      </c>
+      <c r="G26" s="1">
+        <v>600</v>
+      </c>
+      <c r="H26" s="1">
+        <v>600</v>
+      </c>
+      <c r="I26" s="1">
+        <v>600</v>
+      </c>
+      <c r="J26" s="1">
+        <v>600</v>
+      </c>
+      <c r="K26" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>335</v>
+      </c>
+      <c r="C27" s="1">
         <v>345</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D27" s="1">
+        <v>355</v>
+      </c>
+      <c r="E27" s="1">
+        <v>365</v>
+      </c>
+      <c r="F27" s="1">
+        <v>370</v>
+      </c>
+      <c r="G27" s="1">
+        <v>375</v>
+      </c>
+      <c r="H27" s="1">
+        <v>380</v>
+      </c>
+      <c r="I27" s="1">
+        <v>390</v>
+      </c>
+      <c r="J27" s="1">
+        <v>405</v>
+      </c>
+      <c r="K27" s="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>450</v>
+      </c>
+      <c r="C28" s="1">
+        <v>695</v>
+      </c>
+      <c r="D28" s="1">
+        <v>720</v>
+      </c>
+      <c r="E28" s="1">
+        <v>750</v>
+      </c>
+      <c r="F28" s="1">
+        <v>775</v>
+      </c>
+      <c r="G28" s="1">
+        <v>840</v>
+      </c>
+      <c r="H28" s="1">
+        <v>900</v>
+      </c>
+      <c r="I28" s="1">
+        <v>980</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1025</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1">
+        <v>275</v>
+      </c>
+      <c r="C29" s="1">
+        <v>490</v>
+      </c>
+      <c r="D29" s="1">
+        <v>700</v>
+      </c>
+      <c r="E29" s="1">
+        <v>900</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1050</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1330</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1530</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>250</v>
+      </c>
+      <c r="C30" s="1">
+        <v>255</v>
+      </c>
+      <c r="D30" s="1">
+        <v>275</v>
+      </c>
+      <c r="E30" s="1">
+        <v>295</v>
+      </c>
+      <c r="F30" s="1">
+        <v>315</v>
+      </c>
+      <c r="G30" s="1">
         <v>330</v>
       </c>
-      <c r="C4" s="2">
+      <c r="H30" s="1">
+        <v>350</v>
+      </c>
+      <c r="I30" s="1">
+        <v>370</v>
+      </c>
+      <c r="J30" s="1">
+        <v>390</v>
+      </c>
+      <c r="K30" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
+        <v>295</v>
+      </c>
+      <c r="C31" s="1">
+        <v>350</v>
+      </c>
+      <c r="D31" s="1">
+        <v>400</v>
+      </c>
+      <c r="E31" s="1">
+        <v>575</v>
+      </c>
+      <c r="F31" s="1">
+        <v>625</v>
+      </c>
+      <c r="G31" s="1">
+        <v>675</v>
+      </c>
+      <c r="H31" s="1">
+        <v>725</v>
+      </c>
+      <c r="I31" s="1">
+        <v>750</v>
+      </c>
+      <c r="J31" s="1">
+        <v>750</v>
+      </c>
+      <c r="K31" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1">
+        <v>225</v>
+      </c>
+      <c r="C32" s="1">
+        <v>245</v>
+      </c>
+      <c r="D32" s="1">
+        <v>265</v>
+      </c>
+      <c r="E32" s="1">
+        <v>285</v>
+      </c>
+      <c r="F32" s="1">
+        <v>305</v>
+      </c>
+      <c r="G32" s="1">
+        <v>325</v>
+      </c>
+      <c r="H32" s="1">
+        <v>350</v>
+      </c>
+      <c r="I32" s="1">
+        <v>375</v>
+      </c>
+      <c r="J32" s="1">
+        <v>385</v>
+      </c>
+      <c r="K32" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1">
+        <v>550</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1030</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1110</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1475</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1660</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1850</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2095</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2360</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2565</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>350</v>
+      </c>
+      <c r="C34" s="1">
+        <v>450</v>
+      </c>
+      <c r="D34" s="1">
+        <v>545</v>
+      </c>
+      <c r="E34" s="1">
+        <v>640</v>
+      </c>
+      <c r="F34" s="1">
+        <v>710</v>
+      </c>
+      <c r="G34" s="1">
+        <v>790</v>
+      </c>
+      <c r="H34" s="1">
+        <v>855</v>
+      </c>
+      <c r="I34" s="1">
+        <v>930</v>
+      </c>
+      <c r="J34" s="1">
+        <v>990</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1">
+        <v>350</v>
+      </c>
+      <c r="C35" s="1">
+        <v>450</v>
+      </c>
+      <c r="D35" s="1">
+        <v>545</v>
+      </c>
+      <c r="E35" s="1">
+        <v>640</v>
+      </c>
+      <c r="F35" s="1">
+        <v>710</v>
+      </c>
+      <c r="G35" s="1">
+        <v>790</v>
+      </c>
+      <c r="H35" s="1">
+        <v>855</v>
+      </c>
+      <c r="I35" s="1">
+        <v>930</v>
+      </c>
+      <c r="J35" s="1">
+        <v>990</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <v>335</v>
+      </c>
+      <c r="C36" s="1">
+        <v>345</v>
+      </c>
+      <c r="D36" s="1">
+        <v>355</v>
+      </c>
+      <c r="E36" s="1">
+        <v>365</v>
+      </c>
+      <c r="F36" s="1">
+        <v>370</v>
+      </c>
+      <c r="G36" s="1">
+        <v>375</v>
+      </c>
+      <c r="H36" s="1">
+        <v>380</v>
+      </c>
+      <c r="I36" s="1">
+        <v>390</v>
+      </c>
+      <c r="J36" s="1">
+        <v>405</v>
+      </c>
+      <c r="K36" s="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>265</v>
+      </c>
+      <c r="C37" s="1">
+        <v>385</v>
+      </c>
+      <c r="D37" s="1">
+        <v>495</v>
+      </c>
+      <c r="E37" s="1">
         <v>600</v>
       </c>
-      <c r="D4" s="2">
-        <v>875</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="F37" s="1">
+        <v>675</v>
+      </c>
+      <c r="G37" s="1">
+        <v>795</v>
+      </c>
+      <c r="H37" s="1">
+        <v>892.5</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="1">
         <v>1080</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>275</v>
-      </c>
-      <c r="C5" s="2">
-        <v>440</v>
-      </c>
-      <c r="D5" s="2">
-        <v>535</v>
-      </c>
-      <c r="E5" s="2">
-        <v>630</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>255</v>
-      </c>
-      <c r="C6" s="2">
-        <v>375</v>
-      </c>
-      <c r="D6" s="2">
-        <v>495</v>
-      </c>
-      <c r="E6" s="2">
-        <v>600</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>350</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="K37" s="1">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>285</v>
+      </c>
+      <c r="C38" s="1">
         <v>450</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D38" s="1">
         <v>545</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E38" s="1">
         <v>640</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>240</v>
-      </c>
-      <c r="C8" s="2">
-        <v>380</v>
-      </c>
-      <c r="D8" s="2">
-        <v>500</v>
-      </c>
-      <c r="E8" s="2">
-        <v>550</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>285</v>
-      </c>
-      <c r="C9" s="2">
-        <v>500</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="F38" s="1">
+        <v>710</v>
+      </c>
+      <c r="G38" s="1">
+        <v>790</v>
+      </c>
+      <c r="H38" s="1">
+        <v>855</v>
+      </c>
+      <c r="I38" s="1">
+        <v>930</v>
+      </c>
+      <c r="J38" s="1">
+        <v>990</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="1">
+        <v>475</v>
+      </c>
+      <c r="C39" s="1">
+        <v>730</v>
+      </c>
+      <c r="D39" s="1">
+        <v>925</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1115</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1380</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1445</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1525</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1900</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1">
+        <v>450</v>
+      </c>
+      <c r="C40" s="1">
+        <v>695</v>
+      </c>
+      <c r="D40" s="1">
         <v>720</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E40" s="1">
+        <v>750</v>
+      </c>
+      <c r="F40" s="1">
+        <v>775</v>
+      </c>
+      <c r="G40" s="1">
+        <v>840</v>
+      </c>
+      <c r="H40" s="1">
         <v>900</v>
       </c>
-      <c r="F9" s="2">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>330</v>
-      </c>
-      <c r="C10" s="2">
-        <v>600</v>
-      </c>
-      <c r="D10" s="2">
-        <v>875</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1080</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>255</v>
-      </c>
-      <c r="C11" s="2">
-        <v>375</v>
-      </c>
-      <c r="D11" s="2">
-        <v>495</v>
-      </c>
-      <c r="E11" s="2">
-        <v>600</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>240</v>
-      </c>
-      <c r="C12" s="2">
-        <v>380</v>
-      </c>
-      <c r="D12" s="2">
-        <v>500</v>
-      </c>
-      <c r="E12" s="2">
-        <v>550</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="I40" s="1">
+        <v>980</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1025</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1085</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:K1">
+    <sortState ref="A2:K45">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/perfectbar.xlsx
+++ b/db/perfectbar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WPy64-3741\notebooks\spyder\tms-load-robot\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WinPython\dev\tms-load-robot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Destination</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Stockton, CA 95206</t>
-  </si>
-  <si>
-    <t>Tolleson, AZ 85353</t>
   </si>
   <si>
     <t>Tracy, CA 95377</t>
@@ -482,9 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -530,7 +529,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>340</v>
@@ -565,7 +564,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>475</v>
@@ -600,7 +599,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>550</v>
@@ -635,7 +634,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>485</v>
@@ -670,7 +669,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>250</v>
@@ -705,7 +704,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>250</v>
@@ -775,7 +774,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
         <v>285</v>
@@ -810,7 +809,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>475</v>
@@ -880,7 +879,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>265</v>
@@ -915,7 +914,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>450</v>
@@ -950,7 +949,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>450</v>
@@ -985,7 +984,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>350</v>
@@ -1020,7 +1019,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1">
         <v>340</v>
@@ -1055,7 +1054,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
         <v>475</v>
@@ -1090,7 +1089,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>335</v>
@@ -1160,7 +1159,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>475</v>
@@ -1195,7 +1194,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1">
         <v>275</v>
@@ -1265,7 +1264,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
         <v>265</v>
@@ -1300,7 +1299,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
         <v>265</v>
@@ -1335,7 +1334,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>475</v>
@@ -1370,7 +1369,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
         <v>350</v>
@@ -1405,7 +1404,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>335</v>
@@ -1440,7 +1439,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
         <v>450</v>
@@ -1475,7 +1474,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
         <v>275</v>
@@ -1510,7 +1509,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1">
         <v>250</v>
@@ -1545,7 +1544,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1">
         <v>295</v>
@@ -1580,7 +1579,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1">
         <v>225</v>
@@ -1615,7 +1614,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>550</v>
@@ -1685,7 +1684,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1">
         <v>350</v>
@@ -1720,7 +1719,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
         <v>335</v>
@@ -1758,138 +1757,103 @@
         <v>6</v>
       </c>
       <c r="B37" s="1">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C37" s="1">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="D37" s="1">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="E37" s="1">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="F37" s="1">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="G37" s="1">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H37" s="1">
-        <v>892.5</v>
+        <v>855</v>
       </c>
       <c r="I37" s="1">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="J37" s="1">
-        <v>1080</v>
+        <v>990</v>
       </c>
       <c r="K37" s="1">
-        <v>1175</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1">
-        <v>285</v>
+        <v>475</v>
       </c>
       <c r="C38" s="1">
-        <v>450</v>
+        <v>730</v>
       </c>
       <c r="D38" s="1">
-        <v>545</v>
+        <v>925</v>
       </c>
       <c r="E38" s="1">
-        <v>640</v>
+        <v>1115</v>
       </c>
       <c r="F38" s="1">
-        <v>710</v>
+        <v>1380</v>
       </c>
       <c r="G38" s="1">
-        <v>790</v>
+        <v>1445</v>
       </c>
       <c r="H38" s="1">
-        <v>855</v>
+        <v>1525</v>
       </c>
       <c r="I38" s="1">
-        <v>930</v>
+        <v>1725</v>
       </c>
       <c r="J38" s="1">
-        <v>990</v>
+        <v>1900</v>
       </c>
       <c r="K38" s="1">
-        <v>1050</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="C39" s="1">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="D39" s="1">
-        <v>925</v>
+        <v>720</v>
       </c>
       <c r="E39" s="1">
-        <v>1115</v>
+        <v>750</v>
       </c>
       <c r="F39" s="1">
-        <v>1380</v>
+        <v>775</v>
       </c>
       <c r="G39" s="1">
-        <v>1445</v>
+        <v>840</v>
       </c>
       <c r="H39" s="1">
-        <v>1525</v>
+        <v>900</v>
       </c>
       <c r="I39" s="1">
-        <v>1725</v>
+        <v>980</v>
       </c>
       <c r="J39" s="1">
-        <v>1900</v>
+        <v>1025</v>
       </c>
       <c r="K39" s="1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="1">
-        <v>450</v>
-      </c>
-      <c r="C40" s="1">
-        <v>695</v>
-      </c>
-      <c r="D40" s="1">
-        <v>720</v>
-      </c>
-      <c r="E40" s="1">
-        <v>750</v>
-      </c>
-      <c r="F40" s="1">
-        <v>775</v>
-      </c>
-      <c r="G40" s="1">
-        <v>840</v>
-      </c>
-      <c r="H40" s="1">
-        <v>900</v>
-      </c>
-      <c r="I40" s="1">
-        <v>980</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1025</v>
-      </c>
-      <c r="K40" s="1">
         <v>1085</v>
       </c>
     </row>
